--- a/data_year/zb/能源/液化石油气平衡表.xlsx
+++ b/data_year/zb/能源/液化石油气平衡表.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O21"/>
+  <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -508,977 +508,540 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>16.5</v>
+        <v>61.0389231962053</v>
       </c>
       <c r="C2" t="n">
-        <v>24</v>
+        <v>52.57</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4</v>
+        <v>4.660622505</v>
       </c>
       <c r="E2" t="n">
-        <v>858.3</v>
+        <v>1537.00575072723</v>
       </c>
       <c r="F2" t="n">
-        <v>426.1</v>
+        <v>586.783</v>
       </c>
       <c r="G2" t="n">
-        <v>8.9</v>
+        <v>7.18256</v>
       </c>
       <c r="H2" t="n">
-        <v>55.5</v>
+        <v>72.634575</v>
       </c>
       <c r="I2" t="n">
-        <v>1.6</v>
+        <v>93</v>
       </c>
       <c r="J2" t="n">
-        <v>1396.2</v>
+        <v>2323.82</v>
       </c>
       <c r="K2" t="n">
-        <v>6.5</v>
+        <v>1.94649176777148</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.6</v>
+        <v>-2.45</v>
       </c>
       <c r="M2" t="n">
-        <v>916.6</v>
+        <v>2092.27</v>
       </c>
       <c r="N2" t="n">
-        <v>1389.7</v>
+        <v>2321.87350823223</v>
       </c>
       <c r="O2" t="n">
-        <v>481.7</v>
+        <v>327</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17.03</v>
+        <v>65.45769165542271</v>
       </c>
       <c r="C3" t="n">
-        <v>26.21</v>
+        <v>54.76</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3</v>
+        <v>5.61</v>
       </c>
       <c r="E3" t="n">
-        <v>856.04</v>
+        <v>1607.15115577086</v>
       </c>
       <c r="F3" t="n">
-        <v>441.67</v>
+        <v>661.05</v>
       </c>
       <c r="G3" t="n">
-        <v>9.51</v>
+        <v>7.18256</v>
       </c>
       <c r="H3" t="n">
-        <v>60.4</v>
+        <v>69.00284625</v>
       </c>
       <c r="I3" t="n">
-        <v>2.09</v>
+        <v>119.09</v>
       </c>
       <c r="J3" t="n">
-        <v>1428.03</v>
+        <v>2474.24</v>
       </c>
       <c r="K3" t="n">
-        <v>16.8699999999999</v>
+        <v>4.02343797913818</v>
       </c>
       <c r="L3" t="n">
-        <v>-11.07</v>
+        <v>3</v>
       </c>
       <c r="M3" t="n">
-        <v>952.33</v>
+        <v>2240.77</v>
       </c>
       <c r="N3" t="n">
-        <v>1411.16</v>
+        <v>2470.21656202086</v>
       </c>
       <c r="O3" t="n">
-        <v>488.86</v>
+        <v>349.56</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>28.58</v>
+        <v>68.1475134707497</v>
       </c>
       <c r="C4" t="n">
-        <v>31.92</v>
-      </c>
-      <c r="D4" t="inlineStr"/>
+        <v>68.45</v>
+      </c>
+      <c r="D4" t="n">
+        <v>6.4</v>
+      </c>
       <c r="E4" t="n">
-        <v>969.05</v>
+        <v>1635.38328276554</v>
       </c>
       <c r="F4" t="n">
-        <v>520.49</v>
+        <v>621.03</v>
       </c>
       <c r="G4" t="n">
-        <v>12.76</v>
+        <v>6.795420016</v>
       </c>
       <c r="H4" t="n">
-        <v>62.59</v>
+        <v>75.992834575125</v>
       </c>
       <c r="I4" t="n">
-        <v>5.62</v>
+        <v>128.23</v>
       </c>
       <c r="J4" t="n">
-        <v>1663.61</v>
+        <v>2495.97</v>
       </c>
       <c r="K4" t="n">
-        <v>38.2200000000003</v>
+        <v>13.768462643337</v>
       </c>
       <c r="L4" t="n">
-        <v>6.28</v>
+        <v>-3</v>
       </c>
       <c r="M4" t="n">
-        <v>1036.79</v>
+        <v>2268.69</v>
       </c>
       <c r="N4" t="n">
-        <v>1625.39</v>
+        <v>2482.20153735666</v>
       </c>
       <c r="O4" t="n">
-        <v>626.16</v>
+        <v>358.51</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>36.12</v>
+        <v>89.34999999999999</v>
       </c>
       <c r="C5" t="n">
-        <v>32.92</v>
-      </c>
-      <c r="D5" t="inlineStr"/>
+        <v>83.37</v>
+      </c>
+      <c r="D5" t="n">
+        <v>6.784</v>
+      </c>
       <c r="E5" t="n">
-        <v>1112.73</v>
+        <v>1845.57833490432</v>
       </c>
       <c r="F5" t="n">
-        <v>541.5599999999999</v>
+        <v>705.09</v>
       </c>
       <c r="G5" t="n">
-        <v>8.869999999999999</v>
+        <v>14.72</v>
       </c>
       <c r="H5" t="n">
-        <v>64.38</v>
+        <v>78.5461938168492</v>
       </c>
       <c r="I5" t="n">
-        <v>2.4</v>
+        <v>126.92</v>
       </c>
       <c r="J5" t="n">
-        <v>1836.18</v>
+        <v>2836.09</v>
       </c>
       <c r="K5" t="n">
-        <v>39.6000000000001</v>
+        <v>12.6514712788344</v>
       </c>
       <c r="L5" t="n">
-        <v>-9.890000000000001</v>
+        <v>-2</v>
       </c>
       <c r="M5" t="n">
-        <v>1211.73</v>
+        <v>2513.28</v>
       </c>
       <c r="N5" t="n">
-        <v>1796.58</v>
+        <v>2823.43852872117</v>
       </c>
       <c r="O5" t="n">
-        <v>636.74</v>
+        <v>451.73</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>35.92</v>
+        <v>91.8</v>
       </c>
       <c r="C6" t="n">
-        <v>32.92</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="D6" t="n">
-        <v>3.584</v>
+        <v>7.1</v>
       </c>
       <c r="E6" t="n">
-        <v>1350.480948</v>
+        <v>2173.1</v>
       </c>
       <c r="F6" t="n">
-        <v>493.11</v>
+        <v>835</v>
       </c>
       <c r="G6" t="n">
-        <v>8.710000000000001</v>
+        <v>16.8</v>
       </c>
       <c r="H6" t="n">
-        <v>91.31</v>
+        <v>86.59999999999999</v>
       </c>
       <c r="I6" t="n">
-        <v>3.19</v>
+        <v>144.4</v>
       </c>
       <c r="J6" t="n">
-        <v>2051.073</v>
+        <v>3292.7</v>
       </c>
       <c r="K6" t="n">
-        <v>35.0380519999999</v>
+        <v>2.9</v>
       </c>
       <c r="L6" t="n">
-        <v>-3.717</v>
+        <v>-8</v>
       </c>
       <c r="M6" t="n">
-        <v>1416.98</v>
+        <v>2705.8</v>
       </c>
       <c r="N6" t="n">
-        <v>2016.034948</v>
+        <v>3289.8</v>
       </c>
       <c r="O6" t="n">
-        <v>641</v>
+        <v>739.4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>48.7</v>
+        <v>100.3</v>
       </c>
       <c r="C7" t="n">
-        <v>25.8</v>
+        <v>91.40000000000001</v>
       </c>
       <c r="D7" t="n">
-        <v>3.5</v>
+        <v>7.2</v>
       </c>
       <c r="E7" t="n">
-        <v>1328.7</v>
+        <v>2549.3</v>
       </c>
       <c r="F7" t="n">
-        <v>534.4</v>
+        <v>1113.9</v>
       </c>
       <c r="G7" t="n">
-        <v>6.3</v>
+        <v>15.1</v>
       </c>
       <c r="H7" t="n">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="I7" t="n">
-        <v>2.7</v>
+        <v>144.2</v>
       </c>
       <c r="J7" t="n">
-        <v>2052.2</v>
+        <v>4008.2</v>
       </c>
       <c r="K7" t="n">
-        <v>5.7</v>
+        <v>47</v>
       </c>
       <c r="L7" t="n">
-        <v>5.2</v>
+        <v>-26</v>
       </c>
       <c r="M7" t="n">
-        <v>1432.7</v>
+        <v>2934.4</v>
       </c>
       <c r="N7" t="n">
-        <v>2046.5</v>
+        <v>3961.2</v>
       </c>
       <c r="O7" t="n">
-        <v>617</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>54.6865</v>
+        <v>104.2</v>
       </c>
       <c r="C8" t="n">
-        <v>29.43</v>
+        <v>83.5</v>
       </c>
       <c r="D8" t="n">
-        <v>4.69</v>
+        <v>6.8</v>
       </c>
       <c r="E8" t="n">
-        <v>1456.16741</v>
+        <v>2955.4</v>
       </c>
       <c r="F8" t="n">
-        <v>541.1660000000001</v>
+        <v>1766.8</v>
       </c>
       <c r="G8" t="n">
-        <v>7.549872</v>
+        <v>14.8</v>
       </c>
       <c r="H8" t="n">
-        <v>113.8845</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="I8" t="n">
-        <v>15.1</v>
+        <v>132.3</v>
       </c>
       <c r="J8" t="n">
-        <v>2252.47704</v>
+        <v>5034</v>
       </c>
       <c r="K8" t="n">
-        <v>44.9027430000001</v>
+        <v>18.9</v>
       </c>
       <c r="L8" t="n">
-        <v>-13.28296</v>
+        <v>-16</v>
       </c>
       <c r="M8" t="n">
-        <v>1745.3</v>
+        <v>3503.9</v>
       </c>
       <c r="N8" t="n">
-        <v>2207.574297</v>
+        <v>5015.1</v>
       </c>
       <c r="O8" t="n">
-        <v>535.5599999999999</v>
+        <v>1678.5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>55.5065</v>
+        <v>123.7</v>
       </c>
       <c r="C9" t="n">
-        <v>33.8</v>
+        <v>93.5</v>
       </c>
       <c r="D9" t="n">
-        <v>6.23</v>
+        <v>7.1</v>
       </c>
       <c r="E9" t="n">
-        <v>1637.917195254</v>
+        <v>3225</v>
       </c>
       <c r="F9" t="n">
-        <v>455.631</v>
+        <v>1896.3</v>
       </c>
       <c r="G9" t="n">
-        <v>7.2</v>
+        <v>15.8</v>
       </c>
       <c r="H9" t="n">
-        <v>131.564797</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="I9" t="n">
-        <v>33.8</v>
+        <v>132.2</v>
       </c>
       <c r="J9" t="n">
-        <v>2320.20479</v>
+        <v>5472.9</v>
       </c>
       <c r="K9" t="n">
-        <v>-7.64820225400035</v>
+        <v>15.1</v>
       </c>
       <c r="L9" t="n">
-        <v>3.83479</v>
+        <v>5.9</v>
       </c>
       <c r="M9" t="n">
-        <v>1944.74</v>
+        <v>3677.3</v>
       </c>
       <c r="N9" t="n">
-        <v>2327.852992254</v>
+        <v>5457.8</v>
       </c>
       <c r="O9" t="n">
-        <v>405.43</v>
+        <v>1921.9</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>56.68373613776</v>
+        <v>125.1</v>
       </c>
       <c r="C10" t="n">
-        <v>44.68</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="D10" t="n">
-        <v>3.70685</v>
+        <v>7.6</v>
       </c>
       <c r="E10" t="n">
-        <v>1456.97008618384</v>
+        <v>3147.3</v>
       </c>
       <c r="F10" t="n">
-        <v>499.365875316128</v>
+        <v>2215.5</v>
       </c>
       <c r="G10" t="n">
-        <v>6.16</v>
+        <v>17</v>
       </c>
       <c r="H10" t="n">
-        <v>51.35</v>
+        <v>86.2</v>
       </c>
       <c r="I10" t="n">
-        <v>67.84999999999999</v>
+        <v>113.5</v>
       </c>
       <c r="J10" t="n">
-        <v>2114.2616</v>
+        <v>5733.4</v>
       </c>
       <c r="K10" t="n">
-        <v>-4.65533618383643</v>
+        <v>60.3</v>
       </c>
       <c r="L10" t="n">
-        <v>8.0916</v>
+        <v>-35.1</v>
       </c>
       <c r="M10" t="n">
-        <v>1914.78</v>
+        <v>3915.6</v>
       </c>
       <c r="N10" t="n">
-        <v>2118.91693618384</v>
+        <v>5673.1</v>
       </c>
       <c r="O10" t="n">
-        <v>259.24</v>
+        <v>1966.4</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>56.6398373052773</v>
+        <v>156.5</v>
       </c>
       <c r="C11" t="n">
-        <v>48.55</v>
+        <v>72.2</v>
       </c>
       <c r="D11" t="n">
-        <v>4.077535</v>
+        <v>7.8</v>
       </c>
       <c r="E11" t="n">
-        <v>1495.6595595365</v>
+        <v>2854.7</v>
       </c>
       <c r="F11" t="n">
-        <v>478.5</v>
+        <v>2870.3</v>
       </c>
       <c r="G11" t="n">
-        <v>6.5296</v>
+        <v>14</v>
       </c>
       <c r="H11" t="n">
-        <v>63.1605</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="I11" t="n">
-        <v>84.89</v>
+        <v>140.9</v>
       </c>
       <c r="J11" t="n">
-        <v>2157.731128</v>
+        <v>6160.6</v>
       </c>
       <c r="K11" t="n">
-        <v>4.61393346350178</v>
+        <v>94.2</v>
       </c>
       <c r="L11" t="n">
-        <v>2.901128</v>
+        <v>-17.8</v>
       </c>
       <c r="M11" t="n">
-        <v>1831.69</v>
+        <v>4210</v>
       </c>
       <c r="N11" t="n">
-        <v>2153.1171945365</v>
+        <v>6066.4</v>
       </c>
       <c r="O11" t="n">
-        <v>408.03</v>
+        <v>2109.3</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>61</v>
+        <v>111.2</v>
       </c>
       <c r="C12" t="n">
-        <v>52.6</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="D12" t="n">
-        <v>4.7</v>
+        <v>6.5</v>
       </c>
       <c r="E12" t="n">
-        <v>1537</v>
+        <v>2860.4</v>
       </c>
       <c r="F12" t="n">
-        <v>586.8</v>
+        <v>3064.8</v>
       </c>
       <c r="G12" t="n">
-        <v>7.2</v>
+        <v>11.3</v>
       </c>
       <c r="H12" t="n">
-        <v>72.59999999999999</v>
+        <v>85.90000000000001</v>
       </c>
       <c r="I12" t="n">
-        <v>93</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="J12" t="n">
-        <v>2323.8</v>
+        <v>6381.1</v>
       </c>
       <c r="K12" t="n">
-        <v>1.9</v>
+        <v>159.9</v>
       </c>
       <c r="L12" t="n">
-        <v>-2.5</v>
+        <v>-17.7</v>
       </c>
       <c r="M12" t="n">
-        <v>2092.3</v>
+        <v>4489</v>
       </c>
       <c r="N12" t="n">
-        <v>2321.9</v>
+        <v>6221.2</v>
       </c>
       <c r="O12" t="n">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>2011年</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>65.5</v>
-      </c>
-      <c r="C13" t="n">
-        <v>54.8</v>
-      </c>
-      <c r="D13" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="E13" t="n">
-        <v>1607.2</v>
-      </c>
-      <c r="F13" t="n">
-        <v>661.1</v>
-      </c>
-      <c r="G13" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="H13" t="n">
-        <v>69</v>
-      </c>
-      <c r="I13" t="n">
-        <v>119.1</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2474.2</v>
-      </c>
-      <c r="K13" t="n">
-        <v>4</v>
-      </c>
-      <c r="L13" t="n">
-        <v>3</v>
-      </c>
-      <c r="M13" t="n">
-        <v>2240.8</v>
-      </c>
-      <c r="N13" t="n">
-        <v>2470.2</v>
-      </c>
-      <c r="O13" t="n">
-        <v>349.6</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>68.09999999999999</v>
-      </c>
-      <c r="C14" t="n">
-        <v>68.5</v>
-      </c>
-      <c r="D14" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="E14" t="n">
-        <v>1635.4</v>
-      </c>
-      <c r="F14" t="n">
-        <v>621</v>
-      </c>
-      <c r="G14" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="H14" t="n">
-        <v>76</v>
-      </c>
-      <c r="I14" t="n">
-        <v>128.2</v>
-      </c>
-      <c r="J14" t="n">
-        <v>2496</v>
-      </c>
-      <c r="K14" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="L14" t="n">
-        <v>-3</v>
-      </c>
-      <c r="M14" t="n">
-        <v>2268.7</v>
-      </c>
-      <c r="N14" t="n">
-        <v>2482.2</v>
-      </c>
-      <c r="O14" t="n">
-        <v>358.5</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>89.40000000000001</v>
-      </c>
-      <c r="C15" t="n">
-        <v>83.40000000000001</v>
-      </c>
-      <c r="D15" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="E15" t="n">
-        <v>1845.6</v>
-      </c>
-      <c r="F15" t="n">
-        <v>705.1</v>
-      </c>
-      <c r="G15" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="H15" t="n">
-        <v>78.5</v>
-      </c>
-      <c r="I15" t="n">
-        <v>126.9</v>
-      </c>
-      <c r="J15" t="n">
-        <v>2836.1</v>
-      </c>
-      <c r="K15" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="L15" t="n">
-        <v>-2</v>
-      </c>
-      <c r="M15" t="n">
-        <v>2513.3</v>
-      </c>
-      <c r="N15" t="n">
-        <v>2823.4</v>
-      </c>
-      <c r="O15" t="n">
-        <v>451.7</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>91.8</v>
-      </c>
-      <c r="C16" t="n">
-        <v>79.40000000000001</v>
-      </c>
-      <c r="D16" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="E16" t="n">
-        <v>2173.1</v>
-      </c>
-      <c r="F16" t="n">
-        <v>835</v>
-      </c>
-      <c r="G16" t="n">
-        <v>16.8</v>
-      </c>
-      <c r="H16" t="n">
-        <v>86.59999999999999</v>
-      </c>
-      <c r="I16" t="n">
-        <v>144.4</v>
-      </c>
-      <c r="J16" t="n">
-        <v>3292.7</v>
-      </c>
-      <c r="K16" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="L16" t="n">
-        <v>-8</v>
-      </c>
-      <c r="M16" t="n">
-        <v>2705.8</v>
-      </c>
-      <c r="N16" t="n">
-        <v>3289.8</v>
-      </c>
-      <c r="O16" t="n">
-        <v>739.4</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>100.3</v>
-      </c>
-      <c r="C17" t="n">
-        <v>91.40000000000001</v>
-      </c>
-      <c r="D17" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="E17" t="n">
-        <v>2549.3</v>
-      </c>
-      <c r="F17" t="n">
-        <v>1113.9</v>
-      </c>
-      <c r="G17" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="H17" t="n">
-        <v>84</v>
-      </c>
-      <c r="I17" t="n">
-        <v>144.2</v>
-      </c>
-      <c r="J17" t="n">
-        <v>4008.2</v>
-      </c>
-      <c r="K17" t="n">
-        <v>47</v>
-      </c>
-      <c r="L17" t="n">
-        <v>-26</v>
-      </c>
-      <c r="M17" t="n">
-        <v>2934.4</v>
-      </c>
-      <c r="N17" t="n">
-        <v>3961.2</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1244</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>104.2</v>
-      </c>
-      <c r="C18" t="n">
-        <v>83.5</v>
-      </c>
-      <c r="D18" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="E18" t="n">
-        <v>2955.4</v>
-      </c>
-      <c r="F18" t="n">
-        <v>1766.8</v>
-      </c>
-      <c r="G18" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="H18" t="n">
-        <v>83.59999999999999</v>
-      </c>
-      <c r="I18" t="n">
-        <v>132.3</v>
-      </c>
-      <c r="J18" t="n">
-        <v>5034</v>
-      </c>
-      <c r="K18" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="L18" t="n">
-        <v>-16</v>
-      </c>
-      <c r="M18" t="n">
-        <v>3503.9</v>
-      </c>
-      <c r="N18" t="n">
-        <v>5015.1</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1678.5</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>123.7</v>
-      </c>
-      <c r="C19" t="n">
-        <v>93.5</v>
-      </c>
-      <c r="D19" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="E19" t="n">
-        <v>3225</v>
-      </c>
-      <c r="F19" t="n">
-        <v>1896.3</v>
-      </c>
-      <c r="G19" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="H19" t="n">
-        <v>96.40000000000001</v>
-      </c>
-      <c r="I19" t="n">
-        <v>132.2</v>
-      </c>
-      <c r="J19" t="n">
-        <v>5472.9</v>
-      </c>
-      <c r="K19" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="L19" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="M19" t="n">
-        <v>3677.3</v>
-      </c>
-      <c r="N19" t="n">
-        <v>5457.8</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1921.9</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>125.1</v>
-      </c>
-      <c r="C20" t="n">
-        <v>74.40000000000001</v>
-      </c>
-      <c r="D20" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="E20" t="n">
-        <v>3147.3</v>
-      </c>
-      <c r="F20" t="n">
-        <v>2215.5</v>
-      </c>
-      <c r="G20" t="n">
-        <v>17</v>
-      </c>
-      <c r="H20" t="n">
-        <v>86.2</v>
-      </c>
-      <c r="I20" t="n">
-        <v>113.5</v>
-      </c>
-      <c r="J20" t="n">
-        <v>5733.4</v>
-      </c>
-      <c r="K20" t="n">
-        <v>60.3</v>
-      </c>
-      <c r="L20" t="n">
-        <v>-35.1</v>
-      </c>
-      <c r="M20" t="n">
-        <v>3915.6</v>
-      </c>
-      <c r="N20" t="n">
-        <v>5673.1</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1966.4</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>156.5</v>
-      </c>
-      <c r="C21" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="D21" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="E21" t="n">
-        <v>2854.67</v>
-      </c>
-      <c r="F21" t="n">
-        <v>2870.3</v>
-      </c>
-      <c r="G21" t="n">
-        <v>14</v>
-      </c>
-      <c r="H21" t="n">
-        <v>90.90000000000001</v>
-      </c>
-      <c r="I21" t="n">
-        <v>140.9</v>
-      </c>
-      <c r="J21" t="n">
-        <v>6160.6</v>
-      </c>
-      <c r="K21" t="n">
-        <v>94.25</v>
-      </c>
-      <c r="L21" t="n">
-        <v>-17.8</v>
-      </c>
-      <c r="M21" t="n">
-        <v>4210</v>
-      </c>
-      <c r="N21" t="n">
-        <v>6066.37</v>
-      </c>
-      <c r="O21" t="n">
-        <v>2109.3</v>
+        <v>2004.6</v>
       </c>
     </row>
   </sheetData>
